--- a/project/mpt3.xlsx
+++ b/project/mpt3.xlsx
@@ -24,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -45,11 +45,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,16 +89,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -127,14 +118,14 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>4</v>
@@ -156,7 +147,7 @@
       <c r="A2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -176,7 +167,7 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -196,7 +187,7 @@
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -216,7 +207,7 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -236,7 +227,7 @@
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -256,7 +247,7 @@
       <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -276,7 +267,7 @@
       <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -296,7 +287,7 @@
       <c r="A9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -316,7 +307,7 @@
       <c r="A10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="n">
